--- a/Output/Joes_figs/Time_series_area_vol_data.xlsx
+++ b/Output/Joes_figs/Time_series_area_vol_data.xlsx
@@ -19,7 +19,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="11">
+  <si>
+    <t>len</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>Errors</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>TripDate</t>
+  </si>
   <si>
     <t>mean</t>
   </si>
@@ -31,12 +46,6 @@
   </si>
   <si>
     <t>amax</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>TripDate</t>
   </si>
   <si>
     <t>Area_2D</t>
@@ -417,34 +426,30 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -452,16 +457,16 @@
         <v>33034</v>
       </c>
       <c r="B4">
-        <v>3389.58397358333</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>3344.14577352214</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>498.3551965</v>
+        <v>1992.244710441</v>
       </c>
       <c r="E4">
-        <v>11188.334848</v>
+        <v>40675.007683</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -469,16 +474,16 @@
         <v>33445</v>
       </c>
       <c r="B5">
-        <v>3144.4591671175</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>2973.94136073368</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>485.62241305</v>
+        <v>1911.708134017</v>
       </c>
       <c r="E5">
-        <v>9924.800221</v>
+        <v>37733.51000541</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -486,16 +491,16 @@
         <v>33892</v>
       </c>
       <c r="B6">
-        <v>2752.04660638667</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>2669.5102497488</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>438.0960928</v>
+        <v>1838.345755185</v>
       </c>
       <c r="E6">
-        <v>9031.26145</v>
+        <v>33024.55927664</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -503,16 +508,16 @@
         <v>34250</v>
       </c>
       <c r="B7">
-        <v>2523.93189993067</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>2443.92152563825</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>450.86698916</v>
+        <v>1689.019445901</v>
       </c>
       <c r="E7">
-        <v>8892.972368</v>
+        <v>30287.182799168</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -520,16 +525,16 @@
         <v>34431</v>
       </c>
       <c r="B8">
-        <v>2560.40576299917</v>
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>2474.94516087206</v>
+        <v>12</v>
       </c>
       <c r="D8">
-        <v>465.27809982</v>
+        <v>1770.69599092</v>
       </c>
       <c r="E8">
-        <v>8769.404452</v>
+        <v>30724.86915599</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -537,16 +542,16 @@
         <v>34658</v>
       </c>
       <c r="B9">
-        <v>2375.38306908683</v>
+        <v>12</v>
       </c>
       <c r="C9">
-        <v>2409.20489981148</v>
+        <v>12</v>
       </c>
       <c r="D9">
-        <v>312.339595942</v>
+        <v>1654.156323952</v>
       </c>
       <c r="E9">
-        <v>8613.462901</v>
+        <v>28504.596829042</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -554,16 +559,16 @@
         <v>34813</v>
       </c>
       <c r="B10">
-        <v>2283.11099772742</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>2245.03367454104</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>313.126001719</v>
+        <v>1647.906801712</v>
       </c>
       <c r="E10">
-        <v>7919.910751</v>
+        <v>27397.331972729</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -571,16 +576,16 @@
         <v>35108</v>
       </c>
       <c r="B11">
-        <v>2215.88657155167</v>
+        <v>12</v>
       </c>
       <c r="C11">
-        <v>2186.32767369075</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>452.6409709</v>
+        <v>1633.594364467</v>
       </c>
       <c r="E11">
-        <v>7332.023388</v>
+        <v>26590.63885862</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -588,16 +593,16 @@
         <v>35170</v>
       </c>
       <c r="B12">
-        <v>4008.26404114583</v>
+        <v>12</v>
       </c>
       <c r="C12">
-        <v>3544.64549801202</v>
+        <v>12</v>
       </c>
       <c r="D12">
-        <v>1104.9914063</v>
+        <v>1792.29593174</v>
       </c>
       <c r="E12">
-        <v>11578.165617</v>
+        <v>48099.16849375</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -605,16 +610,16 @@
         <v>35320</v>
       </c>
       <c r="B13">
-        <v>3087.77384612083</v>
+        <v>12</v>
       </c>
       <c r="C13">
-        <v>2534.35569523973</v>
+        <v>12</v>
       </c>
       <c r="D13">
-        <v>938.3805202</v>
+        <v>1586.346845113</v>
       </c>
       <c r="E13">
-        <v>7781.023917</v>
+        <v>37053.28615345</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -622,16 +627,16 @@
         <v>35474</v>
       </c>
       <c r="B14">
-        <v>2954.1737978725</v>
+        <v>12</v>
       </c>
       <c r="C14">
-        <v>2535.71769860615</v>
+        <v>12</v>
       </c>
       <c r="D14">
-        <v>824.2218458</v>
+        <v>1560.154532231</v>
       </c>
       <c r="E14">
-        <v>7531.920623</v>
+        <v>35450.08557447</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -639,16 +644,16 @@
         <v>35540</v>
       </c>
       <c r="B15">
-        <v>3050.37384141167</v>
+        <v>12</v>
       </c>
       <c r="C15">
-        <v>2749.02022609768</v>
+        <v>12</v>
       </c>
       <c r="D15">
-        <v>684.1023553</v>
+        <v>1728.793746322</v>
       </c>
       <c r="E15">
-        <v>8650.433399</v>
+        <v>36604.48609694</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -656,16 +661,16 @@
         <v>35665</v>
       </c>
       <c r="B16">
-        <v>2814.14706084333</v>
+        <v>12</v>
       </c>
       <c r="C16">
-        <v>2475.95702120959</v>
+        <v>12</v>
       </c>
       <c r="D16">
-        <v>361.92945669</v>
+        <v>1753.024976944</v>
       </c>
       <c r="E16">
-        <v>7390.336675</v>
+        <v>33769.76473012</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -673,16 +678,16 @@
         <v>35740</v>
       </c>
       <c r="B17">
-        <v>2836.40305547917</v>
+        <v>12</v>
       </c>
       <c r="C17">
-        <v>2724.70844203313</v>
+        <v>12</v>
       </c>
       <c r="D17">
-        <v>616.0587223</v>
+        <v>1486.1698151</v>
       </c>
       <c r="E17">
-        <v>8168.3987367</v>
+        <v>34036.83666575</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -690,16 +695,16 @@
         <v>35900</v>
       </c>
       <c r="B18">
-        <v>2582.33915264417</v>
+        <v>12</v>
       </c>
       <c r="C18">
-        <v>2388.38808440208</v>
+        <v>12</v>
       </c>
       <c r="D18">
-        <v>376.99794921</v>
+        <v>1683.337828072</v>
       </c>
       <c r="E18">
-        <v>8113.771093</v>
+        <v>30988.06983173</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -707,16 +712,16 @@
         <v>36284</v>
       </c>
       <c r="B19">
-        <v>2130.63841629167</v>
+        <v>12</v>
       </c>
       <c r="C19">
-        <v>2069.70461015348</v>
+        <v>12</v>
       </c>
       <c r="D19">
-        <v>282.39075623</v>
+        <v>1549.860683225</v>
       </c>
       <c r="E19">
-        <v>6300.0239043</v>
+        <v>25567.6609955</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -724,16 +729,16 @@
         <v>36602</v>
       </c>
       <c r="B20">
-        <v>2129.867999735</v>
+        <v>12</v>
       </c>
       <c r="C20">
-        <v>1911.61664593709</v>
+        <v>12</v>
       </c>
       <c r="D20">
-        <v>289.13075545</v>
+        <v>1517.958458359</v>
       </c>
       <c r="E20">
-        <v>6805.5136024</v>
+        <v>25558.41599682</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -741,16 +746,16 @@
         <v>36678</v>
       </c>
       <c r="B21">
-        <v>2359.6331891275</v>
+        <v>12</v>
       </c>
       <c r="C21">
-        <v>2213.53182577562</v>
+        <v>12</v>
       </c>
       <c r="D21">
-        <v>263.58983186</v>
+        <v>1603.429388891</v>
       </c>
       <c r="E21">
-        <v>6596.7791301</v>
+        <v>28315.59826953</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -758,16 +763,16 @@
         <v>37169</v>
       </c>
       <c r="B22">
-        <v>2286.09414458333</v>
+        <v>12</v>
       </c>
       <c r="C22">
-        <v>2460.91385307674</v>
+        <v>12</v>
       </c>
       <c r="D22">
-        <v>183.8343921</v>
+        <v>1593.637279471</v>
       </c>
       <c r="E22">
-        <v>8971.558984</v>
+        <v>27433.129735</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -775,16 +780,16 @@
         <v>37519</v>
       </c>
       <c r="B23">
-        <v>1936.254874945</v>
+        <v>12</v>
       </c>
       <c r="C23">
-        <v>1905.73899016385</v>
+        <v>12</v>
       </c>
       <c r="D23">
-        <v>127.80256071</v>
+        <v>1529.395948404</v>
       </c>
       <c r="E23">
-        <v>6091.866759</v>
+        <v>23235.05849934</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -792,16 +797,16 @@
         <v>37736</v>
       </c>
       <c r="B24">
-        <v>2095.65648147917</v>
+        <v>12</v>
       </c>
       <c r="C24">
-        <v>2261.25745722008</v>
+        <v>12</v>
       </c>
       <c r="D24">
-        <v>113.02257692</v>
+        <v>1607.338818717</v>
       </c>
       <c r="E24">
-        <v>7996.511498</v>
+        <v>25147.87777775</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -809,16 +814,16 @@
         <v>37884</v>
       </c>
       <c r="B25">
-        <v>1863.23690106083</v>
+        <v>12</v>
       </c>
       <c r="C25">
-        <v>1839.07404448766</v>
+        <v>12</v>
       </c>
       <c r="D25">
-        <v>138.44996134</v>
+        <v>1498.25144443</v>
       </c>
       <c r="E25">
-        <v>6295.471988</v>
+        <v>22358.84281273</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -826,16 +831,16 @@
         <v>38479</v>
       </c>
       <c r="B26">
-        <v>3034.38557551917</v>
+        <v>12</v>
       </c>
       <c r="C26">
-        <v>2406.07430316352</v>
+        <v>12</v>
       </c>
       <c r="D26">
-        <v>302.23523312</v>
+        <v>1712.027215388</v>
       </c>
       <c r="E26">
-        <v>7327.4063223</v>
+        <v>36412.62690623</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -843,16 +848,16 @@
         <v>38997</v>
       </c>
       <c r="B27">
-        <v>2383.983334035</v>
+        <v>12</v>
       </c>
       <c r="C27">
-        <v>2248.72548881015</v>
+        <v>12</v>
       </c>
       <c r="D27">
-        <v>309.35103158</v>
+        <v>1605.469655895</v>
       </c>
       <c r="E27">
-        <v>7933.794466</v>
+        <v>28607.80000842</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -860,16 +865,16 @@
         <v>39368</v>
       </c>
       <c r="B28">
-        <v>2479.00642841167</v>
+        <v>12</v>
       </c>
       <c r="C28">
-        <v>2577.9466509639</v>
+        <v>12</v>
       </c>
       <c r="D28">
-        <v>374.87283839</v>
+        <v>1665.682318701</v>
       </c>
       <c r="E28">
-        <v>9349.533088</v>
+        <v>29748.07714094</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -877,16 +882,16 @@
         <v>39480</v>
       </c>
       <c r="B29">
-        <v>2407.39937127667</v>
+        <v>12</v>
       </c>
       <c r="C29">
-        <v>2427.38504361948</v>
+        <v>12</v>
       </c>
       <c r="D29">
-        <v>326.0097847</v>
+        <v>1671.431600656</v>
       </c>
       <c r="E29">
-        <v>8900.03087</v>
+        <v>28888.79245532</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -894,16 +899,16 @@
         <v>39535</v>
       </c>
       <c r="B30">
-        <v>3155.14397306833</v>
+        <v>12</v>
       </c>
       <c r="C30">
-        <v>2813.60181580428</v>
+        <v>12</v>
       </c>
       <c r="D30">
-        <v>669.13585571</v>
+        <v>1569.823875126</v>
       </c>
       <c r="E30">
-        <v>9501.546781</v>
+        <v>37861.72767682</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -911,16 +916,16 @@
         <v>39731</v>
       </c>
       <c r="B31">
-        <v>2463.51236716667</v>
+        <v>12</v>
       </c>
       <c r="C31">
-        <v>2243.42916213877</v>
+        <v>12</v>
       </c>
       <c r="D31">
-        <v>459.36412297</v>
+        <v>1461.863506183</v>
       </c>
       <c r="E31">
-        <v>7027.962141</v>
+        <v>29562.148406</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -928,16 +933,16 @@
         <v>40096</v>
       </c>
       <c r="B32">
-        <v>2398.5777683325</v>
+        <v>12</v>
       </c>
       <c r="C32">
-        <v>2241.8462990142</v>
+        <v>12</v>
       </c>
       <c r="D32">
-        <v>469.89668817</v>
+        <v>1566.194005998</v>
       </c>
       <c r="E32">
-        <v>7127.967532</v>
+        <v>28782.93321999</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -945,16 +950,16 @@
         <v>40821</v>
       </c>
       <c r="B33">
-        <v>2682.061590823</v>
+        <v>12</v>
       </c>
       <c r="C33">
-        <v>2162.56243900131</v>
+        <v>12</v>
       </c>
       <c r="D33">
-        <v>239.69593523</v>
+        <v>1556.061373004</v>
       </c>
       <c r="E33">
-        <v>6199.811144</v>
+        <v>32184.739089876</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -962,16 +967,16 @@
         <v>41185</v>
       </c>
       <c r="B34">
-        <v>2325.93769480583</v>
+        <v>12</v>
       </c>
       <c r="C34">
-        <v>2268.01016191795</v>
+        <v>12</v>
       </c>
       <c r="D34">
-        <v>315.03694392</v>
+        <v>1644.697167783</v>
       </c>
       <c r="E34">
-        <v>7481.502299</v>
+        <v>27911.25233767</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -979,16 +984,16 @@
         <v>41538</v>
       </c>
       <c r="B35">
-        <v>2770.49307101333</v>
+        <v>12</v>
       </c>
       <c r="C35">
-        <v>2176.39059976012</v>
+        <v>12</v>
       </c>
       <c r="D35">
-        <v>468.8712818</v>
+        <v>1622.252523973</v>
       </c>
       <c r="E35">
-        <v>7173.496107</v>
+        <v>33245.91685216</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -996,16 +1001,16 @@
         <v>41905</v>
       </c>
       <c r="B36">
-        <v>3232.1641762175</v>
+        <v>12</v>
       </c>
       <c r="C36">
-        <v>3191.51940346335</v>
+        <v>12</v>
       </c>
       <c r="D36">
-        <v>379.45268331</v>
+        <v>1632.174829107</v>
       </c>
       <c r="E36">
-        <v>11675.506008</v>
+        <v>38785.97011461</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1013,16 +1018,16 @@
         <v>42269</v>
       </c>
       <c r="B37">
-        <v>2725.31931965583</v>
+        <v>12</v>
       </c>
       <c r="C37">
-        <v>2726.78417841118</v>
+        <v>12</v>
       </c>
       <c r="D37">
-        <v>351.02606261</v>
+        <v>1543.880848135</v>
       </c>
       <c r="E37">
-        <v>9972.730406</v>
+        <v>32703.83183587</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1030,19 +1035,23 @@
         <v>42644</v>
       </c>
       <c r="B38">
-        <v>2509.35639547</v>
+        <v>12</v>
       </c>
       <c r="C38">
-        <v>2622.17441379669</v>
+        <v>12</v>
       </c>
       <c r="D38">
-        <v>381.26831047</v>
+        <v>1519.389207573</v>
       </c>
       <c r="E38">
-        <v>9888.299511</v>
+        <v>30112.27674564</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1058,36 +1067,36 @@
     <row r="1" spans="1:5">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1701,36 +1710,36 @@
     <row r="1" spans="1:5">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1738,16 +1747,16 @@
         <v>33034</v>
       </c>
       <c r="B4">
-        <v>0.207954503263991</v>
+        <v>0.207957813648066</v>
       </c>
       <c r="C4">
-        <v>0.0876900666628119</v>
+        <v>0.087697179854154</v>
       </c>
       <c r="D4">
-        <v>0.0862913090814324</v>
+        <v>0.0862924025095665</v>
       </c>
       <c r="E4">
-        <v>0.389899607239973</v>
+        <v>0.389938120195465</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1755,16 +1764,16 @@
         <v>33445</v>
       </c>
       <c r="B5">
-        <v>0.204251938676774</v>
+        <v>0.204255127740043</v>
       </c>
       <c r="C5">
-        <v>0.0856157719902438</v>
+        <v>0.0856224177644896</v>
       </c>
       <c r="D5">
-        <v>0.0772691812711553</v>
+        <v>0.0772701603766712</v>
       </c>
       <c r="E5">
-        <v>0.376312116417403</v>
+        <v>0.376349287246821</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1772,16 +1781,16 @@
         <v>33892</v>
       </c>
       <c r="B6">
-        <v>0.197660859712759</v>
+        <v>0.197664116419874</v>
       </c>
       <c r="C6">
-        <v>0.0801568326619889</v>
+        <v>0.0801644231492741</v>
       </c>
       <c r="D6">
-        <v>0.0970984666735254</v>
+        <v>0.09709858686173</v>
       </c>
       <c r="E6">
-        <v>0.379653197654657</v>
+        <v>0.379690698504702</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1789,16 +1798,16 @@
         <v>34250</v>
       </c>
       <c r="B7">
-        <v>0.18403848968776</v>
+        <v>0.184041592579169</v>
       </c>
       <c r="C7">
-        <v>0.0821640505714945</v>
+        <v>0.0821712761225223</v>
       </c>
       <c r="D7">
-        <v>0.064155794273976</v>
+        <v>0.0641566072150608</v>
       </c>
       <c r="E7">
-        <v>0.367064713647179</v>
+        <v>0.367100971049641</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1806,16 +1815,16 @@
         <v>34431</v>
       </c>
       <c r="B8">
-        <v>0.197097735698095</v>
+        <v>0.197101062810078</v>
       </c>
       <c r="C8">
-        <v>0.0890653852427424</v>
+        <v>0.0890730943230103</v>
       </c>
       <c r="D8">
-        <v>0.0650968831561197</v>
+        <v>0.0650977080220794</v>
       </c>
       <c r="E8">
-        <v>0.394145908616587</v>
+        <v>0.39418484100727</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1823,16 +1832,16 @@
         <v>34658</v>
       </c>
       <c r="B9">
-        <v>0.174708652028849</v>
+        <v>0.174711176577755</v>
       </c>
       <c r="C9">
-        <v>0.0737168222865301</v>
+        <v>0.0737212378027204</v>
       </c>
       <c r="D9">
-        <v>0.0494038726073093</v>
+        <v>0.0494044986215026</v>
       </c>
       <c r="E9">
-        <v>0.298909794986404</v>
+        <v>0.298939320278086</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1840,16 +1849,16 @@
         <v>34813</v>
       </c>
       <c r="B10">
-        <v>0.181541849089067</v>
+        <v>0.181544463638777</v>
       </c>
       <c r="C10">
-        <v>0.0761470827918473</v>
+        <v>0.0761515552526473</v>
       </c>
       <c r="D10">
-        <v>0.0614255674908021</v>
+        <v>0.0614263458362039</v>
       </c>
       <c r="E10">
-        <v>0.307980475730795</v>
+        <v>0.308010896993434</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1857,16 +1866,16 @@
         <v>35108</v>
       </c>
       <c r="B11">
-        <v>0.179757527365339</v>
+        <v>0.179760371862292</v>
       </c>
       <c r="C11">
-        <v>0.0831024276493199</v>
+        <v>0.0831078899314837</v>
       </c>
       <c r="D11">
         <v>0.0727863701170591</v>
       </c>
       <c r="E11">
-        <v>0.334285825696805</v>
+        <v>0.334318845312336</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1874,16 +1883,16 @@
         <v>35170</v>
       </c>
       <c r="B12">
-        <v>0.197618314082774</v>
+        <v>0.197621543299933</v>
       </c>
       <c r="C12">
-        <v>0.0931592760671297</v>
+        <v>0.0931658589011589</v>
       </c>
       <c r="D12">
         <v>0.075687623129028</v>
       </c>
       <c r="E12">
-        <v>0.380540454112848</v>
+        <v>0.380578042603065</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1891,16 +1900,16 @@
         <v>35320</v>
       </c>
       <c r="B13">
-        <v>0.183025219105972</v>
+        <v>0.183028145070211</v>
       </c>
       <c r="C13">
-        <v>0.0971323353166372</v>
+        <v>0.0971373302913463</v>
       </c>
       <c r="D13">
         <v>0.0431934074575825</v>
       </c>
       <c r="E13">
-        <v>0.343644184619307</v>
+        <v>0.343678128621664</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1908,16 +1917,16 @@
         <v>35474</v>
       </c>
       <c r="B14">
-        <v>0.176464315868404</v>
+        <v>0.176467127432712</v>
       </c>
       <c r="C14">
-        <v>0.0889329640922424</v>
+        <v>0.0889379481653152</v>
       </c>
       <c r="D14">
         <v>0.0442375216953834</v>
       </c>
       <c r="E14">
-        <v>0.329553621125085</v>
+        <v>0.329586173309563</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1925,16 +1934,16 @@
         <v>35540</v>
       </c>
       <c r="B15">
-        <v>0.188201294554144</v>
+        <v>0.188204223470407</v>
       </c>
       <c r="C15">
-        <v>0.094916784765264</v>
+        <v>0.0949218117453425</v>
       </c>
       <c r="D15">
         <v>0.0386768223135604</v>
       </c>
       <c r="E15">
-        <v>0.345440219510537</v>
+        <v>0.345474340919106</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1942,16 +1951,16 @@
         <v>35665</v>
       </c>
       <c r="B16">
-        <v>0.188132898329643</v>
+        <v>0.188135797079871</v>
       </c>
       <c r="C16">
-        <v>0.0924103187776792</v>
+        <v>0.0924152631014937</v>
       </c>
       <c r="D16">
         <v>0.0331436820597133</v>
       </c>
       <c r="E16">
-        <v>0.340932272484704</v>
+        <v>0.340965948613616</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1959,16 +1968,16 @@
         <v>35740</v>
       </c>
       <c r="B17">
-        <v>0.15597071384165</v>
+        <v>0.155973122526349</v>
       </c>
       <c r="C17">
-        <v>0.0778360090904667</v>
+        <v>0.0778401461041901</v>
       </c>
       <c r="D17">
-        <v>0.0532035144346333</v>
+        <v>0.0532041885954513</v>
       </c>
       <c r="E17">
-        <v>0.284659587763426</v>
+        <v>0.284687705468165</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1976,16 +1985,16 @@
         <v>35900</v>
       </c>
       <c r="B18">
-        <v>0.184864803188713</v>
+        <v>0.184867767215244</v>
       </c>
       <c r="C18">
-        <v>0.0929595394411965</v>
+        <v>0.0929650452111035</v>
       </c>
       <c r="D18">
         <v>0.0329699708141523</v>
       </c>
       <c r="E18">
-        <v>0.350501483293678</v>
+        <v>0.350536104636648</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1993,16 +2002,16 @@
         <v>36284</v>
       </c>
       <c r="B19">
-        <v>0.172100339267083</v>
+        <v>0.17210338751912</v>
       </c>
       <c r="C19">
-        <v>0.0906106015974409</v>
+        <v>0.0906173122454026</v>
       </c>
       <c r="D19">
-        <v>0.0523932949595291</v>
+        <v>0.0523939588537654</v>
       </c>
       <c r="E19">
-        <v>0.36164349996601</v>
+        <v>0.361679221879445</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2010,16 +2019,16 @@
         <v>36602</v>
       </c>
       <c r="B20">
-        <v>0.174594236701205</v>
+        <v>0.174597187993678</v>
       </c>
       <c r="C20">
-        <v>0.082260384772179</v>
+        <v>0.0822670015821532</v>
       </c>
       <c r="D20">
-        <v>0.0518306409130488</v>
+        <v>0.0518312976776939</v>
       </c>
       <c r="E20">
-        <v>0.350194509466349</v>
+        <v>0.35022910048749</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2027,16 +2036,16 @@
         <v>36678</v>
       </c>
       <c r="B21">
-        <v>0.175954830984997</v>
+        <v>0.175957916766945</v>
       </c>
       <c r="C21">
-        <v>0.0905196020930554</v>
+        <v>0.0905264829985865</v>
       </c>
       <c r="D21">
-        <v>0.0461511802489576</v>
+        <v>0.0461517650471191</v>
       </c>
       <c r="E21">
-        <v>0.367122150628824</v>
+        <v>0.367158413704716</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2044,16 +2053,16 @@
         <v>37169</v>
       </c>
       <c r="B22">
-        <v>0.17469175893395</v>
+        <v>0.174694602298258</v>
       </c>
       <c r="C22">
-        <v>0.0871313293526713</v>
+        <v>0.0871368638313983</v>
       </c>
       <c r="D22">
-        <v>0.0533017540943095</v>
+        <v>0.0533024294999575</v>
       </c>
       <c r="E22">
-        <v>0.336766899405167</v>
+        <v>0.33680016409271</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2061,16 +2070,16 @@
         <v>37519</v>
       </c>
       <c r="B23">
-        <v>0.171624776952868</v>
+        <v>0.171627589658142</v>
       </c>
       <c r="C23">
-        <v>0.0864416596809984</v>
+        <v>0.0864471421491407</v>
       </c>
       <c r="D23">
-        <v>0.0565687298270787</v>
+        <v>0.0565694466297482</v>
       </c>
       <c r="E23">
-        <v>0.332884893116927</v>
+        <v>0.332917774353109</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2078,16 +2087,16 @@
         <v>37736</v>
       </c>
       <c r="B24">
-        <v>0.176216613701564</v>
+        <v>0.176219293275002</v>
       </c>
       <c r="C24">
-        <v>0.0890040763915827</v>
+        <v>0.0890084454074072</v>
       </c>
       <c r="D24">
         <v>0.0553203968959621</v>
       </c>
       <c r="E24">
-        <v>0.316196705727396</v>
+        <v>0.316227938561255</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2095,16 +2104,16 @@
         <v>37884</v>
       </c>
       <c r="B25">
-        <v>0.170128455512727</v>
+        <v>0.170131196494602</v>
       </c>
       <c r="C25">
-        <v>0.0866270655664282</v>
+        <v>0.0866320572744142</v>
       </c>
       <c r="D25">
         <v>0.0531473510390635</v>
       </c>
       <c r="E25">
-        <v>0.322422512185588</v>
+        <v>0.322454359983408</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2112,16 +2121,16 @@
         <v>38479</v>
       </c>
       <c r="B26">
-        <v>0.194543600622558</v>
+        <v>0.194546493243267</v>
       </c>
       <c r="C26">
-        <v>0.0807896384174777</v>
+        <v>0.0807951940741096</v>
       </c>
       <c r="D26">
-        <v>0.0493326592028452</v>
+        <v>0.0493332843146679</v>
       </c>
       <c r="E26">
-        <v>0.34310338518015</v>
+        <v>0.34313727576418</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2129,16 +2138,16 @@
         <v>38997</v>
       </c>
       <c r="B27">
-        <v>0.173939748712866</v>
+        <v>0.173942207792271</v>
       </c>
       <c r="C27">
-        <v>0.0717036095586492</v>
+        <v>0.0717074720031041</v>
       </c>
       <c r="D27">
         <v>0.0695596850681036</v>
       </c>
       <c r="E27">
-        <v>0.285509077311353</v>
+        <v>0.285537278925776</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2146,16 +2155,16 @@
         <v>39368</v>
       </c>
       <c r="B28">
-        <v>0.184304755936138</v>
+        <v>0.184307453664888</v>
       </c>
       <c r="C28">
-        <v>0.077562277242282</v>
+        <v>0.0775669708026689</v>
       </c>
       <c r="D28">
         <v>0.0726908154374079</v>
       </c>
       <c r="E28">
-        <v>0.315922476682529</v>
+        <v>0.315953682428976</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2163,16 +2172,16 @@
         <v>39480</v>
       </c>
       <c r="B29">
-        <v>0.188588104310029</v>
+        <v>0.188591035680717</v>
       </c>
       <c r="C29">
-        <v>0.080018377382292</v>
+        <v>0.0800241719000796</v>
       </c>
       <c r="D29">
         <v>0.0618427300726673</v>
       </c>
       <c r="E29">
-        <v>0.342625351444595</v>
+        <v>0.342659194810082</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2180,16 +2189,16 @@
         <v>39535</v>
       </c>
       <c r="B30">
-        <v>0.182347676882656</v>
+        <v>0.18235103596065</v>
       </c>
       <c r="C30">
-        <v>0.0962375541574127</v>
+        <v>0.0962454150031079</v>
       </c>
       <c r="D30">
         <v>0.0583421643759042</v>
       </c>
       <c r="E30">
-        <v>0.397088292539089</v>
+        <v>0.397127515568436</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2197,16 +2206,16 @@
         <v>39731</v>
       </c>
       <c r="B31">
-        <v>0.168598983228309</v>
+        <v>0.168602065226159</v>
       </c>
       <c r="C31">
-        <v>0.0915813329015256</v>
+        <v>0.0915881690927464</v>
       </c>
       <c r="D31">
         <v>0.0484241233263186</v>
       </c>
       <c r="E31">
-        <v>0.363162749235214</v>
+        <v>0.363198621214919</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2214,16 +2223,16 @@
         <v>40096</v>
       </c>
       <c r="B32">
-        <v>0.179646970460548</v>
+        <v>0.179649743413756</v>
       </c>
       <c r="C32">
-        <v>0.0844701446853618</v>
+        <v>0.0844750704884359</v>
       </c>
       <c r="D32">
-        <v>0.0758057460632818</v>
+        <v>0.0758067066250852</v>
       </c>
       <c r="E32">
-        <v>0.325357271753909</v>
+        <v>0.325389409437286</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2231,16 +2240,16 @@
         <v>40821</v>
       </c>
       <c r="B33">
-        <v>0.178691366505096</v>
+        <v>0.178694402450018</v>
       </c>
       <c r="C33">
-        <v>0.100748608877087</v>
+        <v>0.100754232667262</v>
       </c>
       <c r="D33">
         <v>0.0212223834867815</v>
       </c>
       <c r="E33">
-        <v>0.357759156985044</v>
+        <v>0.357794495216307</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2248,16 +2257,16 @@
         <v>41185</v>
       </c>
       <c r="B34">
-        <v>0.180989436106347</v>
+        <v>0.180992192931168</v>
       </c>
       <c r="C34">
-        <v>0.0821568717548157</v>
+        <v>0.0821617673262462</v>
       </c>
       <c r="D34">
         <v>0.0631919450874655</v>
       </c>
       <c r="E34">
-        <v>0.322925729180829</v>
+        <v>0.322957626684711</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2265,16 +2274,16 @@
         <v>41538</v>
       </c>
       <c r="B35">
-        <v>0.186888792959638</v>
+        <v>0.186891713291038</v>
       </c>
       <c r="C35">
-        <v>0.0804568362571541</v>
+        <v>0.080462516594857</v>
       </c>
       <c r="D35">
         <v>0.080955663641789</v>
       </c>
       <c r="E35">
-        <v>0.339963990941536</v>
+        <v>0.339997571426895</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2282,16 +2291,16 @@
         <v>41905</v>
       </c>
       <c r="B36">
-        <v>0.183240285634032</v>
+        <v>0.183243200848651</v>
       </c>
       <c r="C36">
-        <v>0.0873352823241616</v>
+        <v>0.08734090452136</v>
       </c>
       <c r="D36">
-        <v>0.0570506455481972</v>
+        <v>0.0570513684573937</v>
       </c>
       <c r="E36">
-        <v>0.344618602226377</v>
+        <v>0.344652642478388</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2299,16 +2308,16 @@
         <v>42269</v>
       </c>
       <c r="B37">
-        <v>0.176147926920231</v>
+        <v>0.176150462002485</v>
       </c>
       <c r="C37">
-        <v>0.0777088801694037</v>
+        <v>0.0777128561290269</v>
       </c>
       <c r="D37">
         <v>0.0632731735764937</v>
       </c>
       <c r="E37">
-        <v>0.295538818133922</v>
+        <v>0.29556801045199</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2316,16 +2325,16 @@
         <v>42644</v>
       </c>
       <c r="B38">
-        <v>0.183556644656933</v>
+        <v>0.183559902456643</v>
       </c>
       <c r="C38">
-        <v>0.098938805488669</v>
+        <v>0.0989456964314311</v>
       </c>
       <c r="D38">
         <v>0.0363948918907534</v>
       </c>
       <c r="E38">
-        <v>0.383858913528212</v>
+        <v>0.38389682980455</v>
       </c>
     </row>
   </sheetData>
@@ -2346,34 +2355,30 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2381,16 +2386,16 @@
         <v>33034</v>
       </c>
       <c r="B4">
-        <v>1550.96534444311</v>
+        <v>18</v>
       </c>
       <c r="C4">
-        <v>1223.52677000709</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>169.78087887</v>
+        <v>1845.983717427</v>
       </c>
       <c r="E4">
-        <v>4634.782191</v>
+        <v>27917.376199976</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2398,16 +2403,16 @@
         <v>33445</v>
       </c>
       <c r="B5">
-        <v>1646.41564889444</v>
+        <v>18</v>
       </c>
       <c r="C5">
-        <v>1184.01796576291</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>170.75680828</v>
+        <v>1876.912404575</v>
       </c>
       <c r="E5">
-        <v>4289.3970477</v>
+        <v>29635.4816801</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2415,16 +2420,16 @@
         <v>33892</v>
       </c>
       <c r="B6">
-        <v>1385.68469462389</v>
+        <v>18</v>
       </c>
       <c r="C6">
-        <v>1043.72883318242</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>129.07312351</v>
+        <v>1809.458303364</v>
       </c>
       <c r="E6">
-        <v>4293.6656006</v>
+        <v>24942.32450323</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2432,16 +2437,16 @@
         <v>34250</v>
       </c>
       <c r="B7">
-        <v>1457.16523493889</v>
+        <v>18</v>
       </c>
       <c r="C7">
-        <v>1191.3074013089</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>70.85901077</v>
+        <v>1646.436142106</v>
       </c>
       <c r="E7">
-        <v>5287.9223172</v>
+        <v>26228.9742289</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2449,16 +2454,16 @@
         <v>34431</v>
       </c>
       <c r="B8">
-        <v>1426.59133095444</v>
+        <v>18</v>
       </c>
       <c r="C8">
-        <v>1171.89726389411</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>60.8486829</v>
+        <v>1766.19535505</v>
       </c>
       <c r="E8">
-        <v>5225.2569543</v>
+        <v>25678.64395718</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2466,16 +2471,16 @@
         <v>34658</v>
       </c>
       <c r="B9">
-        <v>1398.80623248556</v>
+        <v>18</v>
       </c>
       <c r="C9">
-        <v>1171.47443167951</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>82.96143851</v>
+        <v>1690.240333397</v>
       </c>
       <c r="E9">
-        <v>5137.3561943</v>
+        <v>25178.51218474</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2483,16 +2488,16 @@
         <v>34813</v>
       </c>
       <c r="B10">
-        <v>1497.87351086111</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>1155.79739783211</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>105.26302618</v>
+        <v>1827.495186039</v>
       </c>
       <c r="E10">
-        <v>5041.1105099</v>
+        <v>26961.7231955</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2500,16 +2505,16 @@
         <v>35108</v>
       </c>
       <c r="B11">
-        <v>1374.233725061</v>
+        <v>20</v>
       </c>
       <c r="C11">
-        <v>1126.49236960747</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>277.80578527</v>
+        <v>1974.035833325</v>
       </c>
       <c r="E11">
-        <v>5341.2640673</v>
+        <v>27484.67450122</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2517,16 +2522,16 @@
         <v>35170</v>
       </c>
       <c r="B12">
-        <v>2890.088404915</v>
+        <v>20</v>
       </c>
       <c r="C12">
-        <v>2210.06692741375</v>
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>448.7372607</v>
+        <v>2096.6258704</v>
       </c>
       <c r="E12">
-        <v>7668.642483</v>
+        <v>57801.7680983</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2534,16 +2539,16 @@
         <v>35320</v>
       </c>
       <c r="B13">
-        <v>2388.52642947222</v>
+        <v>18</v>
       </c>
       <c r="C13">
-        <v>1947.21499510304</v>
+        <v>18</v>
       </c>
       <c r="D13">
-        <v>421.3587886</v>
+        <v>1908.445596208</v>
       </c>
       <c r="E13">
-        <v>7255.509287</v>
+        <v>42993.4757305</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2551,16 +2556,16 @@
         <v>35474</v>
       </c>
       <c r="B14">
-        <v>2292.10038584667</v>
+        <v>18</v>
       </c>
       <c r="C14">
-        <v>1863.54793283302</v>
+        <v>18</v>
       </c>
       <c r="D14">
-        <v>183.27393179</v>
+        <v>1730.879012663</v>
       </c>
       <c r="E14">
-        <v>6626.264557</v>
+        <v>41257.80694524</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2568,16 +2573,16 @@
         <v>35540</v>
       </c>
       <c r="B15">
-        <v>2795.7214527605</v>
+        <v>20</v>
       </c>
       <c r="C15">
-        <v>2106.06179646467</v>
+        <v>20</v>
       </c>
       <c r="D15">
-        <v>366.5288493</v>
+        <v>2323.16875529</v>
       </c>
       <c r="E15">
-        <v>6953.2652282</v>
+        <v>55914.42905521</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2585,16 +2590,16 @@
         <v>35665</v>
       </c>
       <c r="B16">
-        <v>2409.805212627</v>
+        <v>20</v>
       </c>
       <c r="C16">
-        <v>1737.91246131639</v>
+        <v>20</v>
       </c>
       <c r="D16">
-        <v>324.8850604</v>
+        <v>2213.559500188</v>
       </c>
       <c r="E16">
-        <v>5592.963737</v>
+        <v>48196.10425254</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2602,16 +2607,16 @@
         <v>35740</v>
       </c>
       <c r="B17">
-        <v>2237.095611721</v>
+        <v>20</v>
       </c>
       <c r="C17">
-        <v>1583.91467895173</v>
+        <v>20</v>
       </c>
       <c r="D17">
-        <v>273.3598593</v>
+        <v>1878.179658156</v>
       </c>
       <c r="E17">
-        <v>5826.226171</v>
+        <v>44741.91223442</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2619,16 +2624,16 @@
         <v>35900</v>
       </c>
       <c r="B18">
-        <v>1967.562286278</v>
+        <v>20</v>
       </c>
       <c r="C18">
-        <v>1452.25928303178</v>
+        <v>20</v>
       </c>
       <c r="D18">
-        <v>369.9958899</v>
+        <v>2043.535860678</v>
       </c>
       <c r="E18">
-        <v>5690.173707</v>
+        <v>39351.24572556</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2636,16 +2641,16 @@
         <v>36284</v>
       </c>
       <c r="B19">
-        <v>1761.4562976075</v>
+        <v>20</v>
       </c>
       <c r="C19">
-        <v>1432.36285206917</v>
+        <v>20</v>
       </c>
       <c r="D19">
-        <v>159.68275511</v>
+        <v>2051.802723773</v>
       </c>
       <c r="E19">
-        <v>6505.225585</v>
+        <v>35229.12595215</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2653,16 +2658,16 @@
         <v>36602</v>
       </c>
       <c r="B20">
-        <v>1580.5670897535</v>
+        <v>20</v>
       </c>
       <c r="C20">
-        <v>1357.02504476006</v>
+        <v>20</v>
       </c>
       <c r="D20">
-        <v>320.03608172</v>
+        <v>1897.087263155</v>
       </c>
       <c r="E20">
-        <v>6280.686548</v>
+        <v>31611.34179507</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2670,16 +2675,16 @@
         <v>36678</v>
       </c>
       <c r="B21">
-        <v>1749.1354689985</v>
+        <v>20</v>
       </c>
       <c r="C21">
-        <v>1398.74862972828</v>
+        <v>20</v>
       </c>
       <c r="D21">
-        <v>107.06806967</v>
+        <v>2036.712167512</v>
       </c>
       <c r="E21">
-        <v>6324.133138</v>
+        <v>34982.70937997</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2687,16 +2692,16 @@
         <v>37169</v>
       </c>
       <c r="B22">
-        <v>1609.0511678245</v>
+        <v>20</v>
       </c>
       <c r="C22">
-        <v>1261.15424290404</v>
+        <v>20</v>
       </c>
       <c r="D22">
-        <v>264.33058156</v>
+        <v>1908.241448259</v>
       </c>
       <c r="E22">
-        <v>6169.753726</v>
+        <v>32181.02335649</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2704,16 +2709,16 @@
         <v>37519</v>
       </c>
       <c r="B23">
-        <v>1728.8544414385</v>
+        <v>20</v>
       </c>
       <c r="C23">
-        <v>1609.33024834562</v>
+        <v>20</v>
       </c>
       <c r="D23">
-        <v>217.2060102</v>
+        <v>1910.356069717</v>
       </c>
       <c r="E23">
-        <v>6560.30798</v>
+        <v>34577.08882877</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2721,16 +2726,16 @@
         <v>37736</v>
       </c>
       <c r="B24">
-        <v>1645.0618656062</v>
+        <v>20</v>
       </c>
       <c r="C24">
-        <v>1536.35121772938</v>
+        <v>20</v>
       </c>
       <c r="D24">
-        <v>163.07818542</v>
+        <v>1922.02213062</v>
       </c>
       <c r="E24">
-        <v>6821.270162</v>
+        <v>32901.237312124</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2738,16 +2743,16 @@
         <v>37884</v>
       </c>
       <c r="B25">
-        <v>1653.208925228</v>
+        <v>20</v>
       </c>
       <c r="C25">
-        <v>1577.03483380519</v>
+        <v>20</v>
       </c>
       <c r="D25">
-        <v>136.03380912</v>
+        <v>1913.529194236</v>
       </c>
       <c r="E25">
-        <v>7174.962608</v>
+        <v>33064.17850456</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2755,16 +2760,16 @@
         <v>38479</v>
       </c>
       <c r="B26">
-        <v>2385.7376132325</v>
+        <v>20</v>
       </c>
       <c r="C26">
-        <v>2090.55207043293</v>
+        <v>20</v>
       </c>
       <c r="D26">
-        <v>332.8987206</v>
+        <v>1924.562203916</v>
       </c>
       <c r="E26">
-        <v>8967.394711</v>
+        <v>47714.75226465</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2772,16 +2777,16 @@
         <v>38997</v>
       </c>
       <c r="B27">
-        <v>1989.01230902235</v>
+        <v>20</v>
       </c>
       <c r="C27">
-        <v>1931.65188999681</v>
+        <v>20</v>
       </c>
       <c r="D27">
-        <v>222.130115947</v>
+        <v>1912.796945733</v>
       </c>
       <c r="E27">
-        <v>8434.966914</v>
+        <v>39780.246180447</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2789,16 +2794,16 @@
         <v>39368</v>
       </c>
       <c r="B28">
-        <v>2157.580436288</v>
+        <v>20</v>
       </c>
       <c r="C28">
-        <v>1967.14753288528</v>
+        <v>20</v>
       </c>
       <c r="D28">
-        <v>236.58233266</v>
+        <v>1987.095497189</v>
       </c>
       <c r="E28">
-        <v>8360.474552</v>
+        <v>43151.60872576</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2806,16 +2811,16 @@
         <v>39480</v>
       </c>
       <c r="B29">
-        <v>2151.47481534235</v>
+        <v>20</v>
       </c>
       <c r="C29">
-        <v>1939.74358705337</v>
+        <v>20</v>
       </c>
       <c r="D29">
-        <v>235.9944511</v>
+        <v>2078.120141032</v>
       </c>
       <c r="E29">
-        <v>8392.277342</v>
+        <v>43029.496306847</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2823,16 +2828,16 @@
         <v>39535</v>
       </c>
       <c r="B30">
-        <v>3407.588236485</v>
+        <v>20</v>
       </c>
       <c r="C30">
-        <v>2776.1605667884</v>
+        <v>20</v>
       </c>
       <c r="D30">
-        <v>450.8716453</v>
+        <v>2087.026882152</v>
       </c>
       <c r="E30">
-        <v>10685.775544</v>
+        <v>68151.7647297</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2840,16 +2845,16 @@
         <v>39731</v>
       </c>
       <c r="B31">
-        <v>2618.61267269</v>
+        <v>20</v>
       </c>
       <c r="C31">
-        <v>2419.3707609662</v>
+        <v>20</v>
       </c>
       <c r="D31">
-        <v>334.4175301</v>
+        <v>1984.702269649</v>
       </c>
       <c r="E31">
-        <v>10210.609353</v>
+        <v>52372.2534538</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2857,16 +2862,16 @@
         <v>40096</v>
       </c>
       <c r="B32">
-        <v>2546.864660201</v>
+        <v>20</v>
       </c>
       <c r="C32">
-        <v>2378.94622969555</v>
+        <v>20</v>
       </c>
       <c r="D32">
-        <v>279.4610511</v>
+        <v>2061.432976022</v>
       </c>
       <c r="E32">
-        <v>9443.627916</v>
+        <v>50937.29320402</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2874,16 +2879,16 @@
         <v>40821</v>
       </c>
       <c r="B33">
-        <v>2681.091288065</v>
+        <v>20</v>
       </c>
       <c r="C33">
-        <v>2660.00797897543</v>
+        <v>20</v>
       </c>
       <c r="D33">
-        <v>303.87442437</v>
+        <v>1989.749938851</v>
       </c>
       <c r="E33">
-        <v>9656.622962</v>
+        <v>53621.8257613</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2891,16 +2896,16 @@
         <v>41185</v>
       </c>
       <c r="B34">
-        <v>2460.512520169</v>
+        <v>20</v>
       </c>
       <c r="C34">
-        <v>2524.25207589684</v>
+        <v>20</v>
       </c>
       <c r="D34">
-        <v>213.96211478</v>
+        <v>2069.16261257</v>
       </c>
       <c r="E34">
-        <v>9844.990234</v>
+        <v>49210.25040338</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2908,16 +2913,16 @@
         <v>41538</v>
       </c>
       <c r="B35">
-        <v>2936.20329881</v>
+        <v>20</v>
       </c>
       <c r="C35">
-        <v>2787.32687243249</v>
+        <v>20</v>
       </c>
       <c r="D35">
-        <v>325.9598425</v>
+        <v>2104.194889766</v>
       </c>
       <c r="E35">
-        <v>10834.49534</v>
+        <v>58724.0659762</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2925,16 +2930,16 @@
         <v>41905</v>
       </c>
       <c r="B36">
-        <v>3072.12980422</v>
+        <v>20</v>
       </c>
       <c r="C36">
-        <v>2837.00614972709</v>
+        <v>20</v>
       </c>
       <c r="D36">
-        <v>265.8661901</v>
+        <v>1990.320972311</v>
       </c>
       <c r="E36">
-        <v>10851.084978</v>
+        <v>61442.5960844</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2942,16 +2947,16 @@
         <v>42269</v>
       </c>
       <c r="B37">
-        <v>2975.654181265</v>
+        <v>20</v>
       </c>
       <c r="C37">
-        <v>2798.36331791158</v>
+        <v>20</v>
       </c>
       <c r="D37">
-        <v>280.436657</v>
+        <v>2079.297416557</v>
       </c>
       <c r="E37">
-        <v>10741.658161</v>
+        <v>59513.0836253</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2959,19 +2964,23 @@
         <v>42644</v>
       </c>
       <c r="B38">
-        <v>2860.230794294</v>
+        <v>20</v>
       </c>
       <c r="C38">
-        <v>2841.34909793697</v>
+        <v>20</v>
       </c>
       <c r="D38">
-        <v>235.06277808</v>
+        <v>2001.404643681</v>
       </c>
       <c r="E38">
-        <v>10820.000917</v>
+        <v>57204.61588588</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2987,36 +2996,36 @@
     <row r="1" spans="1:5">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3630,36 +3639,36 @@
     <row r="1" spans="1:5">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3667,16 +3676,16 @@
         <v>33034</v>
       </c>
       <c r="B4">
-        <v>0.223973765695671</v>
+        <v>0.235318332781538</v>
       </c>
       <c r="C4">
-        <v>0.0794678479998515</v>
+        <v>0.0851751362916865</v>
       </c>
       <c r="D4">
         <v>0.0697605401940639</v>
       </c>
       <c r="E4">
-        <v>0.34926813516644</v>
+        <v>0.370861090108028</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3684,16 +3693,16 @@
         <v>33445</v>
       </c>
       <c r="B5">
-        <v>0.234755049011204</v>
+        <v>0.24636491509261</v>
       </c>
       <c r="C5">
-        <v>0.0761646279609336</v>
+        <v>0.0815407108372788</v>
       </c>
       <c r="D5">
         <v>0.106488554417808</v>
       </c>
       <c r="E5">
-        <v>0.366122748981191</v>
+        <v>0.379533882462731</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3701,16 +3710,16 @@
         <v>33892</v>
       </c>
       <c r="B6">
-        <v>0.2325302786418</v>
+        <v>0.24400537400061</v>
       </c>
       <c r="C6">
-        <v>0.0773142970875284</v>
+        <v>0.0824233561227499</v>
       </c>
       <c r="D6">
         <v>0.106313898559499</v>
       </c>
       <c r="E6">
-        <v>0.340829857601713</v>
+        <v>0.375128142101026</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3718,10 +3727,10 @@
         <v>34250</v>
       </c>
       <c r="B7">
-        <v>0.214007939470558</v>
+        <v>0.224267963266852</v>
       </c>
       <c r="C7">
-        <v>0.0892020557297964</v>
+        <v>0.0920701050606931</v>
       </c>
       <c r="D7">
         <v>0.0553216057480863</v>
@@ -3735,16 +3744,16 @@
         <v>34431</v>
       </c>
       <c r="B8">
-        <v>0.228265440116857</v>
+        <v>0.239702409475199</v>
       </c>
       <c r="C8">
-        <v>0.0862324379948433</v>
+        <v>0.0912760046017793</v>
       </c>
       <c r="D8">
         <v>0.094586249326484</v>
       </c>
       <c r="E8">
-        <v>0.354289318456113</v>
+        <v>0.373881778975119</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3752,16 +3761,16 @@
         <v>34658</v>
       </c>
       <c r="B9">
-        <v>0.21725308704626</v>
+        <v>0.228607703216059</v>
       </c>
       <c r="C9">
-        <v>0.0809684871324013</v>
+        <v>0.0875419671103272</v>
       </c>
       <c r="D9">
         <v>0.069184912407794</v>
       </c>
       <c r="E9">
-        <v>0.342506094023749</v>
+        <v>0.371189601032521</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3769,16 +3778,16 @@
         <v>34813</v>
       </c>
       <c r="B10">
-        <v>0.239662337742409</v>
+        <v>0.25154949239528</v>
       </c>
       <c r="C10">
-        <v>0.0864165591378132</v>
+        <v>0.091510937755764</v>
       </c>
       <c r="D10">
         <v>0.0861900639109256</v>
       </c>
       <c r="E10">
-        <v>0.364381924631396</v>
+        <v>0.388598621655502</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3786,16 +3795,16 @@
         <v>35108</v>
       </c>
       <c r="B11">
-        <v>0.227874764407861</v>
+        <v>0.238963600701071</v>
       </c>
       <c r="C11">
-        <v>0.0905330390582116</v>
+        <v>0.0977816046113942</v>
       </c>
       <c r="D11">
         <v>0.0761595511760612</v>
       </c>
       <c r="E11">
-        <v>0.374018007484326</v>
+        <v>0.402778987079326</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3803,16 +3812,16 @@
         <v>35170</v>
       </c>
       <c r="B12">
-        <v>0.240585157629672</v>
+        <v>0.251150957063964</v>
       </c>
       <c r="C12">
-        <v>0.0849024119728325</v>
+        <v>0.0890274475026058</v>
       </c>
       <c r="D12">
         <v>0.105424703996612</v>
       </c>
       <c r="E12">
-        <v>0.377511718377743</v>
+        <v>0.383780757628561</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3820,16 +3829,16 @@
         <v>35320</v>
       </c>
       <c r="B13">
-        <v>0.240448036567912</v>
+        <v>0.252290393479287</v>
       </c>
       <c r="C13">
-        <v>0.0801651251342778</v>
+        <v>0.0853446219760736</v>
       </c>
       <c r="D13">
         <v>0.100089045525114</v>
       </c>
       <c r="E13">
-        <v>0.360328730776718</v>
+        <v>0.38713415508573</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3837,10 +3846,10 @@
         <v>35474</v>
       </c>
       <c r="B14">
-        <v>0.224734116083156</v>
+        <v>0.236263985895546</v>
       </c>
       <c r="C14">
-        <v>0.091385797620131</v>
+        <v>0.0969161290438878</v>
       </c>
       <c r="D14">
         <v>0.0789362441266528</v>
@@ -3854,10 +3863,10 @@
         <v>35540</v>
       </c>
       <c r="B15">
-        <v>0.250481776277229</v>
+        <v>0.261008719793441</v>
       </c>
       <c r="C15">
-        <v>0.0844747673698784</v>
+        <v>0.0872310105252883</v>
       </c>
       <c r="D15">
         <v>0.109513397214612</v>
@@ -3871,10 +3880,10 @@
         <v>35665</v>
       </c>
       <c r="B16">
-        <v>0.243476117527741</v>
+        <v>0.253734269026192</v>
       </c>
       <c r="C16">
-        <v>0.0762503436105923</v>
+        <v>0.0792255644747093</v>
       </c>
       <c r="D16">
         <v>0.124597710187891</v>
@@ -3888,10 +3897,10 @@
         <v>35740</v>
       </c>
       <c r="B17">
-        <v>0.208077088442131</v>
+        <v>0.216514166238072</v>
       </c>
       <c r="C17">
-        <v>0.07303567398219</v>
+        <v>0.0742169436861193</v>
       </c>
       <c r="D17">
         <v>0.0889269902853881</v>
@@ -3905,16 +3914,16 @@
         <v>35900</v>
       </c>
       <c r="B18">
-        <v>0.23144885275073</v>
+        <v>0.242138216085216</v>
       </c>
       <c r="C18">
-        <v>0.080024205602927</v>
+        <v>0.086064735496321</v>
       </c>
       <c r="D18">
         <v>0.0907437576598174</v>
       </c>
       <c r="E18">
-        <v>0.36784780427116</v>
+        <v>0.388268960109328</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3922,16 +3931,16 @@
         <v>36284</v>
       </c>
       <c r="B19">
-        <v>0.230440724132334</v>
+        <v>0.241083112247184</v>
       </c>
       <c r="C19">
-        <v>0.0809980382062038</v>
+        <v>0.086919200923487</v>
       </c>
       <c r="D19">
         <v>0.0894448102783577</v>
       </c>
       <c r="E19">
-        <v>0.361414134443574</v>
+        <v>0.386562682653087</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3939,16 +3948,16 @@
         <v>36602</v>
       </c>
       <c r="B20">
-        <v>0.223106795347778</v>
+        <v>0.233522720463279</v>
       </c>
       <c r="C20">
-        <v>0.0892224650837286</v>
+        <v>0.0946907676175273</v>
       </c>
       <c r="D20">
         <v>0.0652429597374095</v>
       </c>
       <c r="E20">
-        <v>0.343278775209266</v>
+        <v>0.378336883743588</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3956,16 +3965,16 @@
         <v>36678</v>
       </c>
       <c r="B21">
-        <v>0.228229300173373</v>
+        <v>0.238818434554303</v>
       </c>
       <c r="C21">
-        <v>0.0737514011673955</v>
+        <v>0.08029446953589</v>
       </c>
       <c r="D21">
         <v>0.113461858184931</v>
       </c>
       <c r="E21">
-        <v>0.348078048598404</v>
+        <v>0.38462835118322</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3973,16 +3982,16 @@
         <v>37169</v>
       </c>
       <c r="B22">
-        <v>0.222126423651215</v>
+        <v>0.232277832262007</v>
       </c>
       <c r="C22">
-        <v>0.0761348764162486</v>
+        <v>0.0815576197972463</v>
       </c>
       <c r="D22">
         <v>0.102514671556676</v>
       </c>
       <c r="E22">
-        <v>0.34013042760366</v>
+        <v>0.36872887015087</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3990,16 +3999,16 @@
         <v>37519</v>
       </c>
       <c r="B23">
-        <v>0.223975685147896</v>
+        <v>0.234043621486471</v>
       </c>
       <c r="C23">
-        <v>0.0876479467264699</v>
+        <v>0.0918987134147921</v>
       </c>
       <c r="D23">
         <v>0.0150839683139535</v>
       </c>
       <c r="E23">
-        <v>0.365179443449484</v>
+        <v>0.365696912931556</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -4007,16 +4016,16 @@
         <v>37736</v>
       </c>
       <c r="B24">
-        <v>0.224653081710136</v>
+        <v>0.235295170016055</v>
       </c>
       <c r="C24">
-        <v>0.0919371594619515</v>
+        <v>0.0978579263926072</v>
       </c>
       <c r="D24">
         <v>0.011703341179809</v>
       </c>
       <c r="E24">
-        <v>0.338603122355234</v>
+        <v>0.386551792715296</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -4024,16 +4033,16 @@
         <v>37884</v>
       </c>
       <c r="B25">
-        <v>0.22187353529778</v>
+        <v>0.232449526371269</v>
       </c>
       <c r="C25">
-        <v>0.0850053060923266</v>
+        <v>0.0914687899700906</v>
       </c>
       <c r="D25">
         <v>0.0302387880895965</v>
       </c>
       <c r="E25">
-        <v>0.343664498861203</v>
+        <v>0.384150947791371</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -4041,16 +4050,16 @@
         <v>38479</v>
       </c>
       <c r="B26">
-        <v>0.226664131072088</v>
+        <v>0.237374041023442</v>
       </c>
       <c r="C26">
-        <v>0.0870640230681984</v>
+        <v>0.0933015684509167</v>
       </c>
       <c r="D26">
         <v>0.0286941297589712</v>
       </c>
       <c r="E26">
-        <v>0.357944953644201</v>
+        <v>0.389015273366283</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -4058,16 +4067,16 @@
         <v>38997</v>
       </c>
       <c r="B27">
-        <v>0.225933219098684</v>
+        <v>0.236156639848517</v>
       </c>
       <c r="C27">
-        <v>0.0863598007195633</v>
+        <v>0.0909796514510908</v>
       </c>
       <c r="D27">
         <v>0.029992917936239</v>
       </c>
       <c r="E27">
-        <v>0.34175231645768</v>
+        <v>0.371344561793662</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -4075,16 +4084,16 @@
         <v>39368</v>
       </c>
       <c r="B28">
-        <v>0.230342048851148</v>
+        <v>0.240772537942929</v>
       </c>
       <c r="C28">
-        <v>0.0807783322629528</v>
+        <v>0.0859163452869685</v>
       </c>
       <c r="D28">
         <v>0.0202345084729709</v>
       </c>
       <c r="E28">
-        <v>0.34764730023511</v>
+        <v>0.378865889985391</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -4092,10 +4101,10 @@
         <v>39480</v>
       </c>
       <c r="B29">
-        <v>0.238005016986555</v>
+        <v>0.247919640732769</v>
       </c>
       <c r="C29">
-        <v>0.0753467671792977</v>
+        <v>0.0778026745598013</v>
       </c>
       <c r="D29">
         <v>0.0911952250827815</v>
@@ -4109,16 +4118,16 @@
         <v>39535</v>
       </c>
       <c r="B30">
-        <v>0.234267454449604</v>
+        <v>0.244612175351151</v>
       </c>
       <c r="C30">
-        <v>0.073248341939715</v>
+        <v>0.0779809786892012</v>
       </c>
       <c r="D30">
         <v>0.0895805445302714</v>
       </c>
       <c r="E30">
-        <v>0.365017308855799</v>
+        <v>0.375750538304435</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -4126,16 +4135,16 @@
         <v>39731</v>
       </c>
       <c r="B31">
-        <v>0.224414661289651</v>
+        <v>0.234565362101522</v>
       </c>
       <c r="C31">
-        <v>0.0813917736268055</v>
+        <v>0.0861997514082521</v>
       </c>
       <c r="D31">
         <v>0.0814694262898506</v>
       </c>
       <c r="E31">
-        <v>0.361261688675549</v>
+        <v>0.3687031608226</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -4143,16 +4152,16 @@
         <v>40096</v>
       </c>
       <c r="B32">
-        <v>0.231545547172073</v>
+        <v>0.242650702090499</v>
       </c>
       <c r="C32">
-        <v>0.0736113792059398</v>
+        <v>0.0819126769253019</v>
       </c>
       <c r="D32">
         <v>0.103480610715386</v>
       </c>
       <c r="E32">
-        <v>0.3444472205721</v>
+        <v>0.403371727305762</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -4160,16 +4169,16 @@
         <v>40821</v>
       </c>
       <c r="B33">
-        <v>0.224206149964528</v>
+        <v>0.235196478625336</v>
       </c>
       <c r="C33">
-        <v>0.0865297815456306</v>
+        <v>0.0941611094282953</v>
       </c>
       <c r="D33">
         <v>0.0394568396992915</v>
       </c>
       <c r="E33">
-        <v>0.359755622296238</v>
+        <v>0.399200901575193</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -4177,16 +4186,16 @@
         <v>41185</v>
       </c>
       <c r="B34">
-        <v>0.231611907047607</v>
+        <v>0.241720360646649</v>
       </c>
       <c r="C34">
-        <v>0.0746553586963273</v>
+        <v>0.0787366790018976</v>
       </c>
       <c r="D34">
         <v>0.0843110346546281</v>
       </c>
       <c r="E34">
-        <v>0.356071263393031</v>
+        <v>0.367168618410735</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -4194,16 +4203,16 @@
         <v>41538</v>
       </c>
       <c r="B35">
-        <v>0.243997897072878</v>
+        <v>0.254708799081179</v>
       </c>
       <c r="C35">
-        <v>0.0830441300754088</v>
+        <v>0.0873566497368654</v>
       </c>
       <c r="D35">
         <v>0.0563978450870168</v>
       </c>
       <c r="E35">
-        <v>0.360876951489028</v>
+        <v>0.389051307777987</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -4211,16 +4220,16 @@
         <v>41905</v>
       </c>
       <c r="B36">
-        <v>0.22839771019739</v>
+        <v>0.238809253900421</v>
       </c>
       <c r="C36">
-        <v>0.0823934580114757</v>
+        <v>0.0876099330470399</v>
       </c>
       <c r="D36">
         <v>0.0334777218889573</v>
       </c>
       <c r="E36">
-        <v>0.349390246943574</v>
+        <v>0.378177738019857</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -4228,16 +4237,16 @@
         <v>42269</v>
       </c>
       <c r="B37">
-        <v>0.237683797260015</v>
+        <v>0.248439235019537</v>
       </c>
       <c r="C37">
-        <v>0.0795354640818476</v>
+        <v>0.0850459468639388</v>
       </c>
       <c r="D37">
         <v>0.0559385216078854</v>
       </c>
       <c r="E37">
-        <v>0.355928088310298</v>
+        <v>0.39066897660198</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -4245,16 +4254,16 @@
         <v>42644</v>
       </c>
       <c r="B38">
-        <v>0.231547506078129</v>
+        <v>0.242036627813083</v>
       </c>
       <c r="C38">
-        <v>0.0860856757744805</v>
+        <v>0.0909881988179181</v>
       </c>
       <c r="D38">
         <v>0.0130781400351661</v>
       </c>
       <c r="E38">
-        <v>0.372206823040752</v>
+        <v>0.380995599181477</v>
       </c>
     </row>
   </sheetData>
